--- a/medicine/Enfance/Carol_Lay/Carol_Lay.xlsx
+++ b/medicine/Enfance/Carol_Lay/Carol_Lay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carol Lay, née en 1952 à Whittier en Californie, est une romancière, nouvelliste et auteure de bandes dessinées américaines[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carol Lay, née en 1952 à Whittier en Californie, est une romancière, nouvelliste et auteure de bandes dessinées américaines.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carol Lay est né aux États-Unis, à Whittier (Californie), en 1952. Elle  grandit dans la banlieue du comté d'Orange. Après ses études secondaires, elle entre à UCLA, elle y obtient son Bachelor of Fine Arts (beaux-arts)[2]. Elle s'essaie à différents genres, puis elle trouve sa vocation dans la bande dessinées, la caricature ; elle suit des cours intensifs en bandes dessinées. Elle travaille pour Hanna-Barbera comics, Western Publishing, DC et Marvel Comics et divers indépendants. Elle réalise des storyboards pour des vidéos rock, des longs métrages (Top Secret, Back to the Beach, entre autres) .
-Elle se rend à New York où elle travaille pour des journaux et magazines tels que The Village Voice, Entertainment Weekly, Newsweek, The New York Times, The Wall Street Journal, The New Yorker, Mad Magazine[3], Worth Magazine, More[4], etc.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carol Lay est né aux États-Unis, à Whittier (Californie), en 1952. Elle  grandit dans la banlieue du comté d'Orange. Après ses études secondaires, elle entre à UCLA, elle y obtient son Bachelor of Fine Arts (beaux-arts). Elle s'essaie à différents genres, puis elle trouve sa vocation dans la bande dessinées, la caricature ; elle suit des cours intensifs en bandes dessinées. Elle travaille pour Hanna-Barbera comics, Western Publishing, DC et Marvel Comics et divers indépendants. Elle réalise des storyboards pour des vidéos rock, des longs métrages (Top Secret, Back to the Beach, entre autres) .
+Elle se rend à New York où elle travaille pour des journaux et magazines tels que The Village Voice, Entertainment Weekly, Newsweek, The New York Times, The Wall Street Journal, The New Yorker, Mad Magazine, Worth Magazine, More, etc.
 Carol Lay vit et travaille à Los Angeles.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Art Attack, Waylay Books, 2016
 Tourist Season, Waylay Books, 2016
@@ -556,13 +572,13 @@
 FAMILY JEWELS; A Story Minute Selection (reformatted),  éd. Waylay Comics, 2011
 OH, LAY!: A Story Minute Selection,  Waylay Comics, 2011
 Wonder Woman: Mythos, GraphicAudio, 2009
-The Big Skinny: How I Changed My Fattitude, Villard, 2008[5]
+The Big Skinny: How I Changed My Fattitude, Villard, 2008
 Goodnight, Irene: The Collected Stories of Irene Van de Kamp, Last Gasp, 2007
 Strip Joint, Kitchen Sink Press, 1998
 Joy Ride And Other Stories, Kitchen Sink Press, 1996
 Now Endsville, Kitchen Sink Press, 1993
 Good Girls, éd. Fantagraphics, 1987
-Elle contribue à l'ouvrage collectif Drawing Power : Women's stories of sexual violence, harassment and survival (Abrams Books), publié en 2019 et prix Eisner de la meilleure anthologie 2020[6], et à Balance ta bulle : 62 dessinatrices témoignent du harcèlement et de la violence sexuelle (Massot Éditions), paru en 2020.
+Elle contribue à l'ouvrage collectif Drawing Power : Women's stories of sexual violence, harassment and survival (Abrams Books), publié en 2019 et prix Eisner de la meilleure anthologie 2020, et à Balance ta bulle : 62 dessinatrices témoignent du harcèlement et de la violence sexuelle (Massot Éditions), paru en 2020.
 </t>
         </is>
       </c>
@@ -591,7 +607,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1997 :  Lauréate du Will Eisner Comic Industry Awards </t>
         </is>
